--- a/Project1/Result/summary.xlsx
+++ b/Project1/Result/summary.xlsx
@@ -691,10 +691,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
